--- a/data/output/FV2304_FV2210/MSCONS/13017.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13017.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="334">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="334">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1143,6 +1143,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U171" totalsRowShown="0">
+  <autoFilter ref="A1:U171"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +1462,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9462,5 +9495,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/MSCONS/13017.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13017.xlsx
@@ -2087,7 +2087,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3405,7 +3405,7 @@
         <v>305</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3597,7 +3597,7 @@
         <v>307</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5179,7 +5179,7 @@
         <v>310</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5661,23 +5661,23 @@
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="6" t="s">
         <v>282</v>
       </c>
@@ -5687,20 +5687,20 @@
       <c r="L78" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="6" t="s">
         <v>331</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6473,7 +6473,7 @@
         <v>319</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6735,7 +6735,7 @@
         <v>321</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6943,7 +6943,7 @@
         <v>323</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7151,7 +7151,7 @@
         <v>325</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7629,7 +7629,7 @@
         <v>326</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7945,7 +7945,7 @@
         <v>327</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9125,7 +9125,7 @@
         <v>326</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N166" s="2"/>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N169" s="2"/>
